--- a/BDB/TestData/TestData.xlsx
+++ b/BDB/TestData/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BDBAutomation\BDB\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Temp\git\BDB_UMS\BDB\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B380B483-9F53-4630-AD66-AF379B5091CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9059BBB-5133-4359-9A0C-9E549D5705C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="0" windowWidth="15240" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1545" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -52,6 +52,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>UMS_003</t>
+  </si>
+  <si>
+    <t>CorporateCustMakerChecker.feature</t>
+  </si>
+  <si>
+    <t>UMS_004</t>
+  </si>
+  <si>
+    <t>ResetBlockUser.feature</t>
+  </si>
+  <si>
+    <t>UMS_005</t>
+  </si>
+  <si>
+    <t>Grant_Transaction_Limits.feature</t>
   </si>
 </sst>
 </file>
@@ -392,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -431,10 +449,43 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/BDB/TestData/TestData.xlsx
+++ b/BDB/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Temp\git\BDB_UMS\BDB\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9059BBB-5133-4359-9A0C-9E549D5705C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FC7B2-53CD-4847-A70C-7D275B47D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>Grant_Transaction_Limits.feature</t>
+  </si>
+  <si>
+    <t>TransactionTypeForNonFinancial.feature</t>
+  </si>
+  <si>
+    <t>UMS_006</t>
   </si>
 </sst>
 </file>
@@ -410,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +477,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>12</v>
@@ -486,6 +492,17 @@
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/BDB/TestData/TestData.xlsx
+++ b/BDB/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Temp\git\BDB_UMS\BDB\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35FC7B2-53CD-4847-A70C-7D275B47D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E367CA-2480-41DC-820D-57AC20923727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1545" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -76,6 +76,12 @@
   </si>
   <si>
     <t>UMS_006</t>
+  </si>
+  <si>
+    <t>UMS_007</t>
+  </si>
+  <si>
+    <t>Select_Customer_Category.feature</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,10 +505,21 @@
         <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/BDB/TestData/TestData.xlsx
+++ b/BDB/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Temp\git\BDB_UMS\BDB\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E367CA-2480-41DC-820D-57AC20923727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F7255-B175-4A0A-825E-DAF46F27EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1545" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>Select_Customer_Category.feature</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Executed</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +440,7 @@
     <col min="3" max="3" width="41.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,19 +450,25 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -466,8 +478,11 @@
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -477,8 +492,11 @@
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -499,8 +520,11 @@
       <c r="C6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -510,16 +534,22 @@
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/BDB/TestData/TestData.xlsx
+++ b/BDB/TestData/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Temp\git\BDB_UMS\BDB\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635F7255-B175-4A0A-825E-DAF46F27EC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEEA5199-71A9-4C9A-8BD5-49C290FCC8C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2490" yWindow="0" windowWidth="18780" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>Executed</t>
+  </si>
+  <si>
+    <t>UMS_008</t>
+  </si>
+  <si>
+    <t>ModifyLimit.feature</t>
+  </si>
+  <si>
+    <t>UMS_009</t>
+  </si>
+  <si>
+    <t>DeleteLimit.feature</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -549,6 +561,34 @@
         <v>18</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
     </row>
